--- a/Code/Results/Cases/Case_1_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9907026551754574</v>
+        <v>1.0241563437844</v>
       </c>
       <c r="D2">
-        <v>1.036653367424797</v>
+        <v>1.044899987921914</v>
       </c>
       <c r="E2">
-        <v>1.011804302779534</v>
+        <v>1.035976766366692</v>
       </c>
       <c r="F2">
-        <v>1.030950178346907</v>
+        <v>1.05014729415626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050823561852241</v>
+        <v>1.0370446962429</v>
       </c>
       <c r="J2">
-        <v>1.013165049413248</v>
+        <v>1.029332536153319</v>
       </c>
       <c r="K2">
-        <v>1.047624630377126</v>
+        <v>1.047669739409689</v>
       </c>
       <c r="L2">
-        <v>1.023101598458813</v>
+        <v>1.038771828197156</v>
       </c>
       <c r="M2">
-        <v>1.041994531467456</v>
+        <v>1.052902379673941</v>
       </c>
       <c r="N2">
-        <v>1.008254269998388</v>
+        <v>1.013799798924982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9947703194746547</v>
+        <v>1.02503909946454</v>
       </c>
       <c r="D3">
-        <v>1.039095208827978</v>
+        <v>1.04542917025987</v>
       </c>
       <c r="E3">
-        <v>1.014998213425596</v>
+        <v>1.036716946810454</v>
       </c>
       <c r="F3">
-        <v>1.034116372404473</v>
+        <v>1.050867794244345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051471856871042</v>
+        <v>1.037123224886164</v>
       </c>
       <c r="J3">
-        <v>1.015404573294604</v>
+        <v>1.029854423236858</v>
       </c>
       <c r="K3">
-        <v>1.049251151249506</v>
+        <v>1.048010989095989</v>
       </c>
       <c r="L3">
-        <v>1.025442719603155</v>
+        <v>1.039321698991654</v>
       </c>
       <c r="M3">
-        <v>1.044330572006059</v>
+        <v>1.053435504954948</v>
       </c>
       <c r="N3">
-        <v>1.00901975976213</v>
+        <v>1.013975598377531</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9973555922483051</v>
+        <v>1.025611230685561</v>
       </c>
       <c r="D4">
-        <v>1.040647786968526</v>
+        <v>1.045771660964924</v>
       </c>
       <c r="E4">
-        <v>1.017033714198431</v>
+        <v>1.037196926358242</v>
       </c>
       <c r="F4">
-        <v>1.036132150712464</v>
+        <v>1.051334660772645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051873305505233</v>
+        <v>1.037172754600657</v>
       </c>
       <c r="J4">
-        <v>1.016827184992491</v>
+        <v>1.030192423861757</v>
       </c>
       <c r="K4">
-        <v>1.050279184427759</v>
+        <v>1.048231162733385</v>
       </c>
       <c r="L4">
-        <v>1.026930813848324</v>
+        <v>1.039677867915766</v>
       </c>
       <c r="M4">
-        <v>1.045813205917954</v>
+        <v>1.053780454368193</v>
       </c>
       <c r="N4">
-        <v>1.00950563001482</v>
+        <v>1.014089375676072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9984316098182153</v>
+        <v>1.025851975595366</v>
       </c>
       <c r="D5">
-        <v>1.041294048695583</v>
+        <v>1.045915659738252</v>
       </c>
       <c r="E5">
-        <v>1.017882193344772</v>
+        <v>1.037398955232417</v>
       </c>
       <c r="F5">
-        <v>1.036971893965386</v>
+        <v>1.051531086035978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052037803266285</v>
+        <v>1.037193268828092</v>
       </c>
       <c r="J5">
-        <v>1.017419080454857</v>
+        <v>1.030334591028399</v>
       </c>
       <c r="K5">
-        <v>1.050705619263758</v>
+        <v>1.048323569500357</v>
       </c>
       <c r="L5">
-        <v>1.02755016982343</v>
+        <v>1.039827687405604</v>
       </c>
       <c r="M5">
-        <v>1.046429732392567</v>
+        <v>1.05392546494729</v>
       </c>
       <c r="N5">
-        <v>1.009707684700019</v>
+        <v>1.014137212738823</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9986116531546438</v>
+        <v>1.025892410637137</v>
       </c>
       <c r="D6">
-        <v>1.041402184828191</v>
+        <v>1.045939838623742</v>
       </c>
       <c r="E6">
-        <v>1.018024238016222</v>
+        <v>1.037432891108605</v>
       </c>
       <c r="F6">
-        <v>1.037112445306257</v>
+        <v>1.051564075702778</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052065174048241</v>
+        <v>1.03719669516953</v>
       </c>
       <c r="J6">
-        <v>1.017518105446274</v>
+        <v>1.030358465689318</v>
       </c>
       <c r="K6">
-        <v>1.050776885159381</v>
+        <v>1.04833907591367</v>
       </c>
       <c r="L6">
-        <v>1.027653801362162</v>
+        <v>1.039852847761352</v>
       </c>
       <c r="M6">
-        <v>1.046532857143736</v>
+        <v>1.053949812449053</v>
       </c>
       <c r="N6">
-        <v>1.009741482894354</v>
+        <v>1.014145245076145</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9973700121306995</v>
+        <v>1.025614446664568</v>
       </c>
       <c r="D7">
-        <v>1.040656447491582</v>
+        <v>1.045773585024645</v>
       </c>
       <c r="E7">
-        <v>1.017045079805168</v>
+        <v>1.037199624915805</v>
       </c>
       <c r="F7">
-        <v>1.03614340135771</v>
+        <v>1.051337284812009</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051875520252893</v>
+        <v>1.037173029924225</v>
       </c>
       <c r="J7">
-        <v>1.016835117946153</v>
+        <v>1.030194323226232</v>
       </c>
       <c r="K7">
-        <v>1.050284904936214</v>
+        <v>1.048232398085114</v>
       </c>
       <c r="L7">
-        <v>1.026939114007661</v>
+        <v>1.039679869474781</v>
       </c>
       <c r="M7">
-        <v>1.045821470385113</v>
+        <v>1.053782392033069</v>
       </c>
       <c r="N7">
-        <v>1.009508338469172</v>
+        <v>1.014090014857876</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9920872536043402</v>
+        <v>1.024454481870679</v>
       </c>
       <c r="D8">
-        <v>1.037484364775365</v>
+        <v>1.045078810905115</v>
       </c>
       <c r="E8">
-        <v>1.012890288195588</v>
+        <v>1.036226698716353</v>
       </c>
       <c r="F8">
-        <v>1.032027156822642</v>
+        <v>1.050390653643122</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051046421426564</v>
+        <v>1.037071500670842</v>
       </c>
       <c r="J8">
-        <v>1.013927504496722</v>
+        <v>1.029508846470091</v>
       </c>
       <c r="K8">
-        <v>1.048179441263856</v>
+        <v>1.047785197449867</v>
       </c>
       <c r="L8">
-        <v>1.023898438013805</v>
+        <v>1.038957582981297</v>
       </c>
       <c r="M8">
-        <v>1.042790095400247</v>
+        <v>1.053082554579882</v>
       </c>
       <c r="N8">
-        <v>1.008514963756645</v>
+        <v>1.013859206054033</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9824027421962213</v>
+        <v>1.022417660345537</v>
       </c>
       <c r="D9">
-        <v>1.031678315752867</v>
+        <v>1.043855193017705</v>
       </c>
       <c r="E9">
-        <v>1.00532004515527</v>
+        <v>1.034520276494633</v>
       </c>
       <c r="F9">
-        <v>1.024511929261948</v>
+        <v>1.048727680012546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049444992937527</v>
+        <v>1.036882796826276</v>
       </c>
       <c r="J9">
-        <v>1.008592583672463</v>
+        <v>1.028303338968049</v>
       </c>
       <c r="K9">
-        <v>1.044277523008253</v>
+        <v>1.046992357286245</v>
       </c>
       <c r="L9">
-        <v>1.018327394025879</v>
+        <v>1.037687688888442</v>
       </c>
       <c r="M9">
-        <v>1.037219452877259</v>
+        <v>1.051849289906287</v>
       </c>
       <c r="N9">
-        <v>1.00668938422858</v>
+        <v>1.013452691591164</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9756682602528391</v>
+        <v>1.021064700782483</v>
       </c>
       <c r="D10">
-        <v>1.02765308791828</v>
+        <v>1.043040019830029</v>
       </c>
       <c r="E10">
-        <v>1.000090818766972</v>
+        <v>1.033388152813631</v>
       </c>
       <c r="F10">
-        <v>1.019311867047488</v>
+        <v>1.047622598003461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048279577027335</v>
+        <v>1.036750454067987</v>
       </c>
       <c r="J10">
-        <v>1.004881655371266</v>
+        <v>1.027501349598762</v>
       </c>
       <c r="K10">
-        <v>1.041540384198337</v>
+        <v>1.046460652385442</v>
       </c>
       <c r="L10">
-        <v>1.014458433646514</v>
+        <v>1.03684310923902</v>
       </c>
       <c r="M10">
-        <v>1.033340979689701</v>
+        <v>1.051027177971444</v>
       </c>
       <c r="N10">
-        <v>1.005417797748595</v>
+        <v>1.013181845804156</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726800587600199</v>
+        <v>1.020480040763403</v>
       </c>
       <c r="D11">
-        <v>1.025871333779204</v>
+        <v>1.042687203315955</v>
       </c>
       <c r="E11">
-        <v>0.9977796779596578</v>
+        <v>1.032899257251636</v>
       </c>
       <c r="F11">
-        <v>1.017011855811808</v>
+        <v>1.047144958983862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047750935766645</v>
+        <v>1.036691606725691</v>
       </c>
       <c r="J11">
-        <v>1.003235262698823</v>
+        <v>1.02715449426018</v>
       </c>
       <c r="K11">
-        <v>1.040321308333065</v>
+        <v>1.046229692050221</v>
       </c>
       <c r="L11">
-        <v>1.012743588125801</v>
+        <v>1.036477893967872</v>
       </c>
       <c r="M11">
-        <v>1.031619929549944</v>
+        <v>1.050671232156122</v>
       </c>
       <c r="N11">
-        <v>1.004853291107576</v>
+        <v>1.013064611637855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9715587132557498</v>
+        <v>1.020263050874145</v>
       </c>
       <c r="D12">
-        <v>1.025203488225787</v>
+        <v>1.042556177598031</v>
       </c>
       <c r="E12">
-        <v>0.9969138553028366</v>
+        <v>1.032717860165144</v>
       </c>
       <c r="F12">
-        <v>1.01614996810217</v>
+        <v>1.04696767535641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047550894142736</v>
+        <v>1.036669517301712</v>
       </c>
       <c r="J12">
-        <v>1.002617513795449</v>
+        <v>1.027025719826033</v>
       </c>
       <c r="K12">
-        <v>1.039863250764595</v>
+        <v>1.04614379522042</v>
       </c>
       <c r="L12">
-        <v>1.012100420781381</v>
+        <v>1.036342312386045</v>
       </c>
       <c r="M12">
-        <v>1.030974165738215</v>
+        <v>1.050539024966738</v>
       </c>
       <c r="N12">
-        <v>1.004641432212983</v>
+        <v>1.013021072734841</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9717997706399905</v>
+        <v>1.020309587822909</v>
       </c>
       <c r="D13">
-        <v>1.025347019115795</v>
+        <v>1.042584281845833</v>
       </c>
       <c r="E13">
-        <v>0.9970999157430684</v>
+        <v>1.032756761351795</v>
       </c>
       <c r="F13">
-        <v>1.016335193050431</v>
+        <v>1.047005697252093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047593971541971</v>
+        <v>1.036674265994449</v>
       </c>
       <c r="J13">
-        <v>1.002750308276219</v>
+        <v>1.027053339504102</v>
       </c>
       <c r="K13">
-        <v>1.039961745205224</v>
+        <v>1.046162225238259</v>
       </c>
       <c r="L13">
-        <v>1.012238667044483</v>
+        <v>1.036371391648732</v>
       </c>
       <c r="M13">
-        <v>1.031112981793378</v>
+        <v>1.050567383514715</v>
       </c>
       <c r="N13">
-        <v>1.004686976596007</v>
+        <v>1.013030411648663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725876037834622</v>
+        <v>1.020462100653615</v>
       </c>
       <c r="D14">
-        <v>1.025816253470484</v>
+        <v>1.042676372145367</v>
       </c>
       <c r="E14">
-        <v>0.9977082609058763</v>
+        <v>1.032884258810558</v>
       </c>
       <c r="F14">
-        <v>1.016940767925038</v>
+        <v>1.047130301942442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04773447579062</v>
+        <v>1.03668978551284</v>
       </c>
       <c r="J14">
-        <v>1.003184327560279</v>
+        <v>1.027143848431008</v>
       </c>
       <c r="K14">
-        <v>1.040283552906011</v>
+        <v>1.046222593982987</v>
       </c>
       <c r="L14">
-        <v>1.012690551657089</v>
+        <v>1.036466685200386</v>
       </c>
       <c r="M14">
-        <v>1.031566684278777</v>
+        <v>1.050660303716648</v>
       </c>
       <c r="N14">
-        <v>1.00483582369919</v>
+        <v>1.01306101255111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9730714866332607</v>
+        <v>1.020556092590609</v>
       </c>
       <c r="D15">
-        <v>1.026104560231684</v>
+        <v>1.042733115534456</v>
       </c>
       <c r="E15">
-        <v>0.9980820969187258</v>
+        <v>1.032962840828702</v>
       </c>
       <c r="F15">
-        <v>1.017312871507166</v>
+        <v>1.04720709266525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047820555086606</v>
+        <v>1.036699317026905</v>
       </c>
       <c r="J15">
-        <v>1.00345091068694</v>
+        <v>1.027199622365411</v>
       </c>
       <c r="K15">
-        <v>1.040481130503237</v>
+        <v>1.046259774911569</v>
       </c>
       <c r="L15">
-        <v>1.012968143626413</v>
+        <v>1.036525408769939</v>
       </c>
       <c r="M15">
-        <v>1.031845358304954</v>
+        <v>1.050717555892998</v>
       </c>
       <c r="N15">
-        <v>1.004927242266799</v>
+        <v>1.013079867730967</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9758650108531071</v>
+        <v>1.02110352774274</v>
       </c>
       <c r="D16">
-        <v>1.027770503284873</v>
+        <v>1.043063438633106</v>
       </c>
       <c r="E16">
-        <v>1.00024318729642</v>
+        <v>1.033420627210863</v>
       </c>
       <c r="F16">
-        <v>1.019463467550365</v>
+        <v>1.047654315828233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048314149180562</v>
+        <v>1.03675432714917</v>
       </c>
       <c r="J16">
-        <v>1.004990065744321</v>
+        <v>1.027524378021307</v>
       </c>
       <c r="K16">
-        <v>1.041620563982001</v>
+        <v>1.046475965246924</v>
       </c>
       <c r="L16">
-        <v>1.014571387470848</v>
+        <v>1.03686735789657</v>
       </c>
       <c r="M16">
-        <v>1.033454303156384</v>
+        <v>1.051050801795908</v>
       </c>
       <c r="N16">
-        <v>1.00545496196199</v>
+        <v>1.01318962721605</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9775976210706235</v>
+        <v>1.021447236457059</v>
       </c>
       <c r="D17">
-        <v>1.02880498342613</v>
+        <v>1.043270685656049</v>
       </c>
       <c r="E17">
-        <v>1.001586016293783</v>
+        <v>1.033708139690123</v>
       </c>
       <c r="F17">
-        <v>1.020799330292327</v>
+        <v>1.04793508128787</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048617289254488</v>
+        <v>1.036788421241301</v>
       </c>
       <c r="J17">
-        <v>1.005944769550878</v>
+        <v>1.02772819969908</v>
       </c>
       <c r="K17">
-        <v>1.042326128189237</v>
+        <v>1.046611381785989</v>
       </c>
       <c r="L17">
-        <v>1.015566293929625</v>
+        <v>1.037081986690549</v>
       </c>
       <c r="M17">
-        <v>1.034452242061183</v>
+        <v>1.051259848552376</v>
       </c>
       <c r="N17">
-        <v>1.005782204673031</v>
+        <v>1.013258488532406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978601303620108</v>
+        <v>1.021647829723463</v>
       </c>
       <c r="D18">
-        <v>1.029404647726607</v>
+        <v>1.043391584519742</v>
       </c>
       <c r="E18">
-        <v>1.002364768027237</v>
+        <v>1.033875968225704</v>
       </c>
       <c r="F18">
-        <v>1.021573872260497</v>
+        <v>1.048098930704784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048791794464566</v>
+        <v>1.036808158910536</v>
       </c>
       <c r="J18">
-        <v>1.006497836200223</v>
+        <v>1.027847125038726</v>
       </c>
       <c r="K18">
-        <v>1.042734413732296</v>
+        <v>1.046690297556189</v>
       </c>
       <c r="L18">
-        <v>1.016142806960981</v>
+        <v>1.037207223528341</v>
       </c>
       <c r="M18">
-        <v>1.035030321110516</v>
+        <v>1.051381785155034</v>
       </c>
       <c r="N18">
-        <v>1.005971744713194</v>
+        <v>1.013298658370342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9789423761277554</v>
+        <v>1.021716246097475</v>
       </c>
       <c r="D19">
-        <v>1.02960849069539</v>
+        <v>1.043432810416635</v>
       </c>
       <c r="E19">
-        <v>1.002629548871153</v>
+        <v>1.033933214963939</v>
       </c>
       <c r="F19">
-        <v>1.021837192079404</v>
+        <v>1.048154813245948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048850906368755</v>
+        <v>1.036814863676592</v>
       </c>
       <c r="J19">
-        <v>1.006685781584386</v>
+        <v>1.027887682184684</v>
       </c>
       <c r="K19">
-        <v>1.042873080303711</v>
+        <v>1.046717193804056</v>
       </c>
       <c r="L19">
-        <v>1.01633874608725</v>
+        <v>1.037249934063091</v>
       </c>
       <c r="M19">
-        <v>1.035226759189286</v>
+        <v>1.051423362867233</v>
       </c>
       <c r="N19">
-        <v>1.006036149084519</v>
+        <v>1.013312355943729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9774124480515531</v>
+        <v>1.021410347984114</v>
       </c>
       <c r="D20">
-        <v>1.028694380718796</v>
+        <v>1.043248448425834</v>
       </c>
       <c r="E20">
-        <v>1.00144241094712</v>
+        <v>1.033677279133406</v>
       </c>
       <c r="F20">
-        <v>1.020656487326472</v>
+        <v>1.047904949140135</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048585004778013</v>
+        <v>1.036784778657285</v>
       </c>
       <c r="J20">
-        <v>1.00584273336711</v>
+        <v>1.027706327456393</v>
       </c>
       <c r="K20">
-        <v>1.042250765880362</v>
+        <v>1.046596860143884</v>
       </c>
       <c r="L20">
-        <v>1.015459944626733</v>
+        <v>1.037058954128741</v>
       </c>
       <c r="M20">
-        <v>1.034345588227193</v>
+        <v>1.051237419473191</v>
       </c>
       <c r="N20">
-        <v>1.005747233338171</v>
+        <v>1.013251099927129</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9723559257581863</v>
+        <v>1.020417184476132</v>
       </c>
       <c r="D21">
-        <v>1.025678243505868</v>
+        <v>1.042649253111031</v>
       </c>
       <c r="E21">
-        <v>0.997529324334957</v>
+        <v>1.032846708436429</v>
       </c>
       <c r="F21">
-        <v>1.016762652410726</v>
+        <v>1.047093605283666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04769320301108</v>
+        <v>1.036685221769258</v>
       </c>
       <c r="J21">
-        <v>1.003056693209207</v>
+        <v>1.027117194056234</v>
       </c>
       <c r="K21">
-        <v>1.040188934405583</v>
+        <v>1.046204819857549</v>
       </c>
       <c r="L21">
-        <v>1.012557656092913</v>
+        <v>1.036438621524566</v>
       </c>
       <c r="M21">
-        <v>1.031433261270371</v>
+        <v>1.050632940827155</v>
       </c>
       <c r="N21">
-        <v>1.004792052734291</v>
+        <v>1.013052001148429</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9691104627728188</v>
+        <v>1.019793778831186</v>
       </c>
       <c r="D22">
-        <v>1.023746929603965</v>
+        <v>1.042272666993274</v>
       </c>
       <c r="E22">
-        <v>0.9950262432307158</v>
+        <v>1.032325656634368</v>
       </c>
       <c r="F22">
-        <v>1.0142705382611</v>
+        <v>1.046584250481816</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047111156639875</v>
+        <v>1.036621290864428</v>
       </c>
       <c r="J22">
-        <v>1.00126895364512</v>
+        <v>1.026747148114643</v>
       </c>
       <c r="K22">
-        <v>1.038862190806282</v>
+        <v>1.045957705204288</v>
       </c>
       <c r="L22">
-        <v>1.010696879357124</v>
+        <v>1.036049032125113</v>
       </c>
       <c r="M22">
-        <v>1.029564496607916</v>
+        <v>1.050252922130349</v>
       </c>
       <c r="N22">
-        <v>1.004178855939271</v>
+        <v>1.012926861089313</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.970837417221402</v>
+        <v>1.02012415927614</v>
       </c>
       <c r="D23">
-        <v>1.02477413548181</v>
+        <v>1.042472287309159</v>
       </c>
       <c r="E23">
-        <v>0.9963573406000338</v>
+        <v>1.032601765354221</v>
       </c>
       <c r="F23">
-        <v>1.015595920402796</v>
+        <v>1.046854195431403</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047421758517906</v>
+        <v>1.036655308181523</v>
       </c>
       <c r="J23">
-        <v>1.002220177773585</v>
+        <v>1.026943281386127</v>
       </c>
       <c r="K23">
-        <v>1.039568455080743</v>
+        <v>1.046088763916618</v>
       </c>
       <c r="L23">
-        <v>1.011686812711906</v>
+        <v>1.036255518781231</v>
       </c>
       <c r="M23">
-        <v>1.03055881579534</v>
+        <v>1.050454372738201</v>
       </c>
       <c r="N23">
-        <v>1.004505151590591</v>
+        <v>1.012993196126344</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.977496141111746</v>
+        <v>1.021427015945783</v>
       </c>
       <c r="D24">
-        <v>1.028744368836303</v>
+        <v>1.043258496426353</v>
       </c>
       <c r="E24">
-        <v>1.001507313898222</v>
+        <v>1.033691223297309</v>
       </c>
       <c r="F24">
-        <v>1.020721046245104</v>
+        <v>1.047918564302422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048599599880517</v>
+        <v>1.036786425044189</v>
       </c>
       <c r="J24">
-        <v>1.005888850838011</v>
+        <v>1.027716210459174</v>
       </c>
       <c r="K24">
-        <v>1.042284828921937</v>
+        <v>1.046603422066618</v>
       </c>
       <c r="L24">
-        <v>1.015508011021169</v>
+        <v>1.037069361405442</v>
       </c>
       <c r="M24">
-        <v>1.034393792854344</v>
+        <v>1.051247554199071</v>
       </c>
       <c r="N24">
-        <v>1.005763039498674</v>
+        <v>1.01325443850691</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9849534785110643</v>
+        <v>1.022943366767435</v>
       </c>
       <c r="D25">
-        <v>1.03320586693186</v>
+        <v>1.044171435968599</v>
       </c>
       <c r="E25">
-        <v>1.00730813480769</v>
+        <v>1.034960468010078</v>
       </c>
       <c r="F25">
-        <v>1.026487210570366</v>
+        <v>1.049156979372135</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049875979229303</v>
+        <v>1.036932737435465</v>
       </c>
       <c r="J25">
-        <v>1.009998049659555</v>
+        <v>1.028614700553285</v>
       </c>
       <c r="K25">
-        <v>1.0453096809113</v>
+        <v>1.047197886550329</v>
       </c>
       <c r="L25">
-        <v>1.019794050907512</v>
+        <v>1.038015638043611</v>
       </c>
       <c r="M25">
-        <v>1.038687804720964</v>
+        <v>1.052168114764148</v>
       </c>
       <c r="N25">
-        <v>1.007170643462873</v>
+        <v>1.013557758587352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0241563437844</v>
+        <v>0.9907026551754572</v>
       </c>
       <c r="D2">
-        <v>1.044899987921914</v>
+        <v>1.036653367424797</v>
       </c>
       <c r="E2">
-        <v>1.035976766366692</v>
+        <v>1.011804302779534</v>
       </c>
       <c r="F2">
-        <v>1.05014729415626</v>
+        <v>1.030950178346907</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0370446962429</v>
+        <v>1.050823561852241</v>
       </c>
       <c r="J2">
-        <v>1.029332536153319</v>
+        <v>1.013165049413248</v>
       </c>
       <c r="K2">
-        <v>1.047669739409689</v>
+        <v>1.047624630377126</v>
       </c>
       <c r="L2">
-        <v>1.038771828197156</v>
+        <v>1.023101598458813</v>
       </c>
       <c r="M2">
-        <v>1.052902379673941</v>
+        <v>1.041994531467456</v>
       </c>
       <c r="N2">
-        <v>1.013799798924982</v>
+        <v>1.008254269998388</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02503909946454</v>
+        <v>0.9947703194746548</v>
       </c>
       <c r="D3">
-        <v>1.04542917025987</v>
+        <v>1.039095208827978</v>
       </c>
       <c r="E3">
-        <v>1.036716946810454</v>
+        <v>1.014998213425596</v>
       </c>
       <c r="F3">
-        <v>1.050867794244345</v>
+        <v>1.034116372404473</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037123224886164</v>
+        <v>1.051471856871042</v>
       </c>
       <c r="J3">
-        <v>1.029854423236858</v>
+        <v>1.015404573294604</v>
       </c>
       <c r="K3">
-        <v>1.048010989095989</v>
+        <v>1.049251151249507</v>
       </c>
       <c r="L3">
-        <v>1.039321698991654</v>
+        <v>1.025442719603155</v>
       </c>
       <c r="M3">
-        <v>1.053435504954948</v>
+        <v>1.044330572006059</v>
       </c>
       <c r="N3">
-        <v>1.013975598377531</v>
+        <v>1.00901975976213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025611230685561</v>
+        <v>0.9973555922483051</v>
       </c>
       <c r="D4">
-        <v>1.045771660964924</v>
+        <v>1.040647786968527</v>
       </c>
       <c r="E4">
-        <v>1.037196926358242</v>
+        <v>1.017033714198431</v>
       </c>
       <c r="F4">
-        <v>1.051334660772645</v>
+        <v>1.036132150712465</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037172754600657</v>
+        <v>1.051873305505233</v>
       </c>
       <c r="J4">
-        <v>1.030192423861757</v>
+        <v>1.016827184992491</v>
       </c>
       <c r="K4">
-        <v>1.048231162733385</v>
+        <v>1.05027918442776</v>
       </c>
       <c r="L4">
-        <v>1.039677867915766</v>
+        <v>1.026930813848324</v>
       </c>
       <c r="M4">
-        <v>1.053780454368193</v>
+        <v>1.045813205917955</v>
       </c>
       <c r="N4">
-        <v>1.014089375676072</v>
+        <v>1.00950563001482</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025851975595366</v>
+        <v>0.9984316098182155</v>
       </c>
       <c r="D5">
-        <v>1.045915659738252</v>
+        <v>1.041294048695583</v>
       </c>
       <c r="E5">
-        <v>1.037398955232417</v>
+        <v>1.017882193344772</v>
       </c>
       <c r="F5">
-        <v>1.051531086035978</v>
+        <v>1.036971893965386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037193268828092</v>
+        <v>1.052037803266286</v>
       </c>
       <c r="J5">
-        <v>1.030334591028399</v>
+        <v>1.017419080454857</v>
       </c>
       <c r="K5">
-        <v>1.048323569500357</v>
+        <v>1.050705619263759</v>
       </c>
       <c r="L5">
-        <v>1.039827687405604</v>
+        <v>1.02755016982343</v>
       </c>
       <c r="M5">
-        <v>1.05392546494729</v>
+        <v>1.046429732392567</v>
       </c>
       <c r="N5">
-        <v>1.014137212738823</v>
+        <v>1.009707684700019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025892410637137</v>
+        <v>0.9986116531546434</v>
       </c>
       <c r="D6">
-        <v>1.045939838623742</v>
+        <v>1.041402184828191</v>
       </c>
       <c r="E6">
-        <v>1.037432891108605</v>
+        <v>1.018024238016221</v>
       </c>
       <c r="F6">
-        <v>1.051564075702778</v>
+        <v>1.037112445306257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03719669516953</v>
+        <v>1.052065174048241</v>
       </c>
       <c r="J6">
-        <v>1.030358465689318</v>
+        <v>1.017518105446273</v>
       </c>
       <c r="K6">
-        <v>1.04833907591367</v>
+        <v>1.05077688515938</v>
       </c>
       <c r="L6">
-        <v>1.039852847761352</v>
+        <v>1.027653801362161</v>
       </c>
       <c r="M6">
-        <v>1.053949812449053</v>
+        <v>1.046532857143736</v>
       </c>
       <c r="N6">
-        <v>1.014145245076145</v>
+        <v>1.009741482894354</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025614446664568</v>
+        <v>0.9973700121306992</v>
       </c>
       <c r="D7">
-        <v>1.045773585024645</v>
+        <v>1.040656447491582</v>
       </c>
       <c r="E7">
-        <v>1.037199624915805</v>
+        <v>1.017045079805167</v>
       </c>
       <c r="F7">
-        <v>1.051337284812009</v>
+        <v>1.03614340135771</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037173029924225</v>
+        <v>1.051875520252894</v>
       </c>
       <c r="J7">
-        <v>1.030194323226232</v>
+        <v>1.016835117946153</v>
       </c>
       <c r="K7">
-        <v>1.048232398085114</v>
+        <v>1.050284904936214</v>
       </c>
       <c r="L7">
-        <v>1.039679869474781</v>
+        <v>1.026939114007661</v>
       </c>
       <c r="M7">
-        <v>1.053782392033069</v>
+        <v>1.045821470385113</v>
       </c>
       <c r="N7">
-        <v>1.014090014857876</v>
+        <v>1.009508338469171</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024454481870679</v>
+        <v>0.9920872536043401</v>
       </c>
       <c r="D8">
-        <v>1.045078810905115</v>
+        <v>1.037484364775364</v>
       </c>
       <c r="E8">
-        <v>1.036226698716353</v>
+        <v>1.012890288195588</v>
       </c>
       <c r="F8">
-        <v>1.050390653643122</v>
+        <v>1.032027156822642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037071500670842</v>
+        <v>1.051046421426563</v>
       </c>
       <c r="J8">
-        <v>1.029508846470091</v>
+        <v>1.013927504496722</v>
       </c>
       <c r="K8">
-        <v>1.047785197449867</v>
+        <v>1.048179441263855</v>
       </c>
       <c r="L8">
-        <v>1.038957582981297</v>
+        <v>1.023898438013805</v>
       </c>
       <c r="M8">
-        <v>1.053082554579882</v>
+        <v>1.042790095400247</v>
       </c>
       <c r="N8">
-        <v>1.013859206054033</v>
+        <v>1.008514963756645</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022417660345537</v>
+        <v>0.982402742196221</v>
       </c>
       <c r="D9">
-        <v>1.043855193017705</v>
+        <v>1.031678315752867</v>
       </c>
       <c r="E9">
-        <v>1.034520276494633</v>
+        <v>1.00532004515527</v>
       </c>
       <c r="F9">
-        <v>1.048727680012546</v>
+        <v>1.024511929261948</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036882796826276</v>
+        <v>1.049444992937527</v>
       </c>
       <c r="J9">
-        <v>1.028303338968049</v>
+        <v>1.008592583672463</v>
       </c>
       <c r="K9">
-        <v>1.046992357286245</v>
+        <v>1.044277523008253</v>
       </c>
       <c r="L9">
-        <v>1.037687688888442</v>
+        <v>1.018327394025879</v>
       </c>
       <c r="M9">
-        <v>1.051849289906287</v>
+        <v>1.037219452877259</v>
       </c>
       <c r="N9">
-        <v>1.013452691591164</v>
+        <v>1.00668938422858</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021064700782483</v>
+        <v>0.9756682602528388</v>
       </c>
       <c r="D10">
-        <v>1.043040019830029</v>
+        <v>1.02765308791828</v>
       </c>
       <c r="E10">
-        <v>1.033388152813631</v>
+        <v>1.000090818766971</v>
       </c>
       <c r="F10">
-        <v>1.047622598003461</v>
+        <v>1.019311867047487</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036750454067987</v>
+        <v>1.048279577027335</v>
       </c>
       <c r="J10">
-        <v>1.027501349598762</v>
+        <v>1.004881655371265</v>
       </c>
       <c r="K10">
-        <v>1.046460652385442</v>
+        <v>1.041540384198336</v>
       </c>
       <c r="L10">
-        <v>1.03684310923902</v>
+        <v>1.014458433646514</v>
       </c>
       <c r="M10">
-        <v>1.051027177971444</v>
+        <v>1.0333409796897</v>
       </c>
       <c r="N10">
-        <v>1.013181845804156</v>
+        <v>1.005417797748595</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020480040763403</v>
+        <v>0.9726800587600203</v>
       </c>
       <c r="D11">
-        <v>1.042687203315955</v>
+        <v>1.025871333779204</v>
       </c>
       <c r="E11">
-        <v>1.032899257251636</v>
+        <v>0.9977796779596576</v>
       </c>
       <c r="F11">
-        <v>1.047144958983862</v>
+        <v>1.017011855811808</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036691606725691</v>
+        <v>1.047750935766645</v>
       </c>
       <c r="J11">
-        <v>1.02715449426018</v>
+        <v>1.003235262698823</v>
       </c>
       <c r="K11">
-        <v>1.046229692050221</v>
+        <v>1.040321308333065</v>
       </c>
       <c r="L11">
-        <v>1.036477893967872</v>
+        <v>1.012743588125801</v>
       </c>
       <c r="M11">
-        <v>1.050671232156122</v>
+        <v>1.031619929549944</v>
       </c>
       <c r="N11">
-        <v>1.013064611637855</v>
+        <v>1.004853291107576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020263050874145</v>
+        <v>0.9715587132557495</v>
       </c>
       <c r="D12">
-        <v>1.042556177598031</v>
+        <v>1.025203488225787</v>
       </c>
       <c r="E12">
-        <v>1.032717860165144</v>
+        <v>0.996913855302836</v>
       </c>
       <c r="F12">
-        <v>1.04696767535641</v>
+        <v>1.01614996810217</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036669517301712</v>
+        <v>1.047550894142736</v>
       </c>
       <c r="J12">
-        <v>1.027025719826033</v>
+        <v>1.002617513795449</v>
       </c>
       <c r="K12">
-        <v>1.04614379522042</v>
+        <v>1.039863250764595</v>
       </c>
       <c r="L12">
-        <v>1.036342312386045</v>
+        <v>1.012100420781381</v>
       </c>
       <c r="M12">
-        <v>1.050539024966738</v>
+        <v>1.030974165738215</v>
       </c>
       <c r="N12">
-        <v>1.013021072734841</v>
+        <v>1.004641432212983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020309587822909</v>
+        <v>0.97179977063999</v>
       </c>
       <c r="D13">
-        <v>1.042584281845833</v>
+        <v>1.025347019115795</v>
       </c>
       <c r="E13">
-        <v>1.032756761351795</v>
+        <v>0.9970999157430677</v>
       </c>
       <c r="F13">
-        <v>1.047005697252093</v>
+        <v>1.016335193050431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036674265994449</v>
+        <v>1.047593971541971</v>
       </c>
       <c r="J13">
-        <v>1.027053339504102</v>
+        <v>1.002750308276219</v>
       </c>
       <c r="K13">
-        <v>1.046162225238259</v>
+        <v>1.039961745205224</v>
       </c>
       <c r="L13">
-        <v>1.036371391648732</v>
+        <v>1.012238667044482</v>
       </c>
       <c r="M13">
-        <v>1.050567383514715</v>
+        <v>1.031112981793378</v>
       </c>
       <c r="N13">
-        <v>1.013030411648663</v>
+        <v>1.004686976596007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020462100653615</v>
+        <v>0.9725876037834621</v>
       </c>
       <c r="D14">
-        <v>1.042676372145367</v>
+        <v>1.025816253470484</v>
       </c>
       <c r="E14">
-        <v>1.032884258810558</v>
+        <v>0.9977082609058759</v>
       </c>
       <c r="F14">
-        <v>1.047130301942442</v>
+        <v>1.016940767925038</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03668978551284</v>
+        <v>1.04773447579062</v>
       </c>
       <c r="J14">
-        <v>1.027143848431008</v>
+        <v>1.003184327560279</v>
       </c>
       <c r="K14">
-        <v>1.046222593982987</v>
+        <v>1.040283552906011</v>
       </c>
       <c r="L14">
-        <v>1.036466685200386</v>
+        <v>1.012690551657089</v>
       </c>
       <c r="M14">
-        <v>1.050660303716648</v>
+        <v>1.031566684278776</v>
       </c>
       <c r="N14">
-        <v>1.01306101255111</v>
+        <v>1.00483582369919</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020556092590609</v>
+        <v>0.973071486633261</v>
       </c>
       <c r="D15">
-        <v>1.042733115534456</v>
+        <v>1.026104560231684</v>
       </c>
       <c r="E15">
-        <v>1.032962840828702</v>
+        <v>0.998082096918726</v>
       </c>
       <c r="F15">
-        <v>1.04720709266525</v>
+        <v>1.017312871507166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036699317026905</v>
+        <v>1.047820555086606</v>
       </c>
       <c r="J15">
-        <v>1.027199622365411</v>
+        <v>1.003450910686941</v>
       </c>
       <c r="K15">
-        <v>1.046259774911569</v>
+        <v>1.040481130503237</v>
       </c>
       <c r="L15">
-        <v>1.036525408769939</v>
+        <v>1.012968143626413</v>
       </c>
       <c r="M15">
-        <v>1.050717555892998</v>
+        <v>1.031845358304955</v>
       </c>
       <c r="N15">
-        <v>1.013079867730967</v>
+        <v>1.004927242266799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02110352774274</v>
+        <v>0.9758650108531071</v>
       </c>
       <c r="D16">
-        <v>1.043063438633106</v>
+        <v>1.027770503284873</v>
       </c>
       <c r="E16">
-        <v>1.033420627210863</v>
+        <v>1.00024318729642</v>
       </c>
       <c r="F16">
-        <v>1.047654315828233</v>
+        <v>1.019463467550365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03675432714917</v>
+        <v>1.048314149180562</v>
       </c>
       <c r="J16">
-        <v>1.027524378021307</v>
+        <v>1.004990065744321</v>
       </c>
       <c r="K16">
-        <v>1.046475965246924</v>
+        <v>1.041620563982001</v>
       </c>
       <c r="L16">
-        <v>1.03686735789657</v>
+        <v>1.014571387470848</v>
       </c>
       <c r="M16">
-        <v>1.051050801795908</v>
+        <v>1.033454303156384</v>
       </c>
       <c r="N16">
-        <v>1.01318962721605</v>
+        <v>1.00545496196199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021447236457059</v>
+        <v>0.9775976210706238</v>
       </c>
       <c r="D17">
-        <v>1.043270685656049</v>
+        <v>1.02880498342613</v>
       </c>
       <c r="E17">
-        <v>1.033708139690123</v>
+        <v>1.001586016293783</v>
       </c>
       <c r="F17">
-        <v>1.04793508128787</v>
+        <v>1.020799330292327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036788421241301</v>
+        <v>1.048617289254488</v>
       </c>
       <c r="J17">
-        <v>1.02772819969908</v>
+        <v>1.005944769550879</v>
       </c>
       <c r="K17">
-        <v>1.046611381785989</v>
+        <v>1.042326128189237</v>
       </c>
       <c r="L17">
-        <v>1.037081986690549</v>
+        <v>1.015566293929625</v>
       </c>
       <c r="M17">
-        <v>1.051259848552376</v>
+        <v>1.034452242061183</v>
       </c>
       <c r="N17">
-        <v>1.013258488532406</v>
+        <v>1.005782204673031</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021647829723463</v>
+        <v>0.9786013036201077</v>
       </c>
       <c r="D18">
-        <v>1.043391584519742</v>
+        <v>1.029404647726608</v>
       </c>
       <c r="E18">
-        <v>1.033875968225704</v>
+        <v>1.002364768027237</v>
       </c>
       <c r="F18">
-        <v>1.048098930704784</v>
+        <v>1.021573872260497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036808158910536</v>
+        <v>1.048791794464566</v>
       </c>
       <c r="J18">
-        <v>1.027847125038726</v>
+        <v>1.006497836200222</v>
       </c>
       <c r="K18">
-        <v>1.046690297556189</v>
+        <v>1.042734413732296</v>
       </c>
       <c r="L18">
-        <v>1.037207223528341</v>
+        <v>1.016142806960981</v>
       </c>
       <c r="M18">
-        <v>1.051381785155034</v>
+        <v>1.035030321110516</v>
       </c>
       <c r="N18">
-        <v>1.013298658370342</v>
+        <v>1.005971744713194</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021716246097475</v>
+        <v>0.9789423761277549</v>
       </c>
       <c r="D19">
-        <v>1.043432810416635</v>
+        <v>1.02960849069539</v>
       </c>
       <c r="E19">
-        <v>1.033933214963939</v>
+        <v>1.002629548871153</v>
       </c>
       <c r="F19">
-        <v>1.048154813245948</v>
+        <v>1.021837192079403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036814863676592</v>
+        <v>1.048850906368755</v>
       </c>
       <c r="J19">
-        <v>1.027887682184684</v>
+        <v>1.006685781584385</v>
       </c>
       <c r="K19">
-        <v>1.046717193804056</v>
+        <v>1.042873080303711</v>
       </c>
       <c r="L19">
-        <v>1.037249934063091</v>
+        <v>1.01633874608725</v>
       </c>
       <c r="M19">
-        <v>1.051423362867233</v>
+        <v>1.035226759189285</v>
       </c>
       <c r="N19">
-        <v>1.013312355943729</v>
+        <v>1.006036149084519</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021410347984114</v>
+        <v>0.9774124480515534</v>
       </c>
       <c r="D20">
-        <v>1.043248448425834</v>
+        <v>1.028694380718796</v>
       </c>
       <c r="E20">
-        <v>1.033677279133406</v>
+        <v>1.00144241094712</v>
       </c>
       <c r="F20">
-        <v>1.047904949140135</v>
+        <v>1.020656487326472</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036784778657285</v>
+        <v>1.048585004778013</v>
       </c>
       <c r="J20">
-        <v>1.027706327456393</v>
+        <v>1.00584273336711</v>
       </c>
       <c r="K20">
-        <v>1.046596860143884</v>
+        <v>1.042250765880362</v>
       </c>
       <c r="L20">
-        <v>1.037058954128741</v>
+        <v>1.015459944626733</v>
       </c>
       <c r="M20">
-        <v>1.051237419473191</v>
+        <v>1.034345588227193</v>
       </c>
       <c r="N20">
-        <v>1.013251099927129</v>
+        <v>1.005747233338171</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020417184476132</v>
+        <v>0.9723559257581861</v>
       </c>
       <c r="D21">
-        <v>1.042649253111031</v>
+        <v>1.025678243505868</v>
       </c>
       <c r="E21">
-        <v>1.032846708436429</v>
+        <v>0.9975293243349567</v>
       </c>
       <c r="F21">
-        <v>1.047093605283666</v>
+        <v>1.016762652410725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036685221769258</v>
+        <v>1.04769320301108</v>
       </c>
       <c r="J21">
-        <v>1.027117194056234</v>
+        <v>1.003056693209207</v>
       </c>
       <c r="K21">
-        <v>1.046204819857549</v>
+        <v>1.040188934405583</v>
       </c>
       <c r="L21">
-        <v>1.036438621524566</v>
+        <v>1.012557656092913</v>
       </c>
       <c r="M21">
-        <v>1.050632940827155</v>
+        <v>1.03143326127037</v>
       </c>
       <c r="N21">
-        <v>1.013052001148429</v>
+        <v>1.004792052734291</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019793778831186</v>
+        <v>0.9691104627728191</v>
       </c>
       <c r="D22">
-        <v>1.042272666993274</v>
+        <v>1.023746929603965</v>
       </c>
       <c r="E22">
-        <v>1.032325656634368</v>
+        <v>0.9950262432307162</v>
       </c>
       <c r="F22">
-        <v>1.046584250481816</v>
+        <v>1.0142705382611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036621290864428</v>
+        <v>1.047111156639875</v>
       </c>
       <c r="J22">
-        <v>1.026747148114643</v>
+        <v>1.00126895364512</v>
       </c>
       <c r="K22">
-        <v>1.045957705204288</v>
+        <v>1.038862190806282</v>
       </c>
       <c r="L22">
-        <v>1.036049032125113</v>
+        <v>1.010696879357125</v>
       </c>
       <c r="M22">
-        <v>1.050252922130349</v>
+        <v>1.029564496607916</v>
       </c>
       <c r="N22">
-        <v>1.012926861089313</v>
+        <v>1.004178855939271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02012415927614</v>
+        <v>0.970837417221402</v>
       </c>
       <c r="D23">
-        <v>1.042472287309159</v>
+        <v>1.02477413548181</v>
       </c>
       <c r="E23">
-        <v>1.032601765354221</v>
+        <v>0.9963573406000338</v>
       </c>
       <c r="F23">
-        <v>1.046854195431403</v>
+        <v>1.015595920402796</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036655308181523</v>
+        <v>1.047421758517906</v>
       </c>
       <c r="J23">
-        <v>1.026943281386127</v>
+        <v>1.002220177773585</v>
       </c>
       <c r="K23">
-        <v>1.046088763916618</v>
+        <v>1.039568455080744</v>
       </c>
       <c r="L23">
-        <v>1.036255518781231</v>
+        <v>1.011686812711906</v>
       </c>
       <c r="M23">
-        <v>1.050454372738201</v>
+        <v>1.03055881579534</v>
       </c>
       <c r="N23">
-        <v>1.012993196126344</v>
+        <v>1.004505151590591</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021427015945783</v>
+        <v>0.977496141111746</v>
       </c>
       <c r="D24">
-        <v>1.043258496426353</v>
+        <v>1.028744368836303</v>
       </c>
       <c r="E24">
-        <v>1.033691223297309</v>
+        <v>1.001507313898222</v>
       </c>
       <c r="F24">
-        <v>1.047918564302422</v>
+        <v>1.020721046245104</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036786425044189</v>
+        <v>1.048599599880517</v>
       </c>
       <c r="J24">
-        <v>1.027716210459174</v>
+        <v>1.005888850838011</v>
       </c>
       <c r="K24">
-        <v>1.046603422066618</v>
+        <v>1.042284828921937</v>
       </c>
       <c r="L24">
-        <v>1.037069361405442</v>
+        <v>1.015508011021169</v>
       </c>
       <c r="M24">
-        <v>1.051247554199071</v>
+        <v>1.034393792854344</v>
       </c>
       <c r="N24">
-        <v>1.01325443850691</v>
+        <v>1.005763039498674</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022943366767435</v>
+        <v>0.9849534785110645</v>
       </c>
       <c r="D25">
-        <v>1.044171435968599</v>
+        <v>1.03320586693186</v>
       </c>
       <c r="E25">
-        <v>1.034960468010078</v>
+        <v>1.00730813480769</v>
       </c>
       <c r="F25">
-        <v>1.049156979372135</v>
+        <v>1.026487210570366</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036932737435465</v>
+        <v>1.049875979229303</v>
       </c>
       <c r="J25">
-        <v>1.028614700553285</v>
+        <v>1.009998049659555</v>
       </c>
       <c r="K25">
-        <v>1.047197886550329</v>
+        <v>1.045309680911299</v>
       </c>
       <c r="L25">
-        <v>1.038015638043611</v>
+        <v>1.019794050907512</v>
       </c>
       <c r="M25">
-        <v>1.052168114764148</v>
+        <v>1.038687804720964</v>
       </c>
       <c r="N25">
-        <v>1.013557758587352</v>
+        <v>1.007170643462873</v>
       </c>
     </row>
   </sheetData>
